--- a/excel/assignments/Assignment11_Workbook.xlsx
+++ b/excel/assignments/Assignment11_Workbook.xlsx
@@ -19,15 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
-    <t>Homeroom #</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Gabriel</t>
   </si>
   <si>
@@ -44,9 +35,6 @@
   </si>
   <si>
     <t>James</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Large</t>
@@ -119,9 +107,6 @@
   </si>
   <si>
     <t>Hanlon</t>
-  </si>
-  <si>
-    <t>T-Shirt Size</t>
   </si>
   <si>
     <t>Nathan</t>
@@ -208,16 +193,32 @@
     <t>Sidney</t>
   </si>
   <si>
-    <t>Payment Date</t>
+    <t>Zimmernummer #</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>T-Shirt Größe</t>
+  </si>
+  <si>
+    <t>Zahlungsdatum</t>
+  </si>
+  <si>
+    <t>Ausstehend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -350,18 +351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -418,7 +411,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -446,7 +447,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>714376</xdr:rowOff>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -461,8 +462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1171576" y="714376"/>
-          <a:ext cx="4781550" cy="133350"/>
+          <a:off x="1485901" y="485775"/>
+          <a:ext cx="4781550" cy="361951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,7 +506,7 @@
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>2013 T-Shirt Orders</a:t>
+            <a:t>2013 T-Shirt Bestellungen</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12594,7 +12595,7 @@
   <dimension ref="A1:AD108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12603,41 +12604,41 @@
     <col min="2" max="3" width="14.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="9" style="11"/>
+    <col min="6" max="6" width="14.875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="9" style="10"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>63</v>
+      <c r="E2" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -12651,2220 +12652,2220 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="26">
+        <v>40458</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>105</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27">
+        <v>40465</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>105</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="27">
+        <v>40458</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="27">
+        <v>40458</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="27">
+        <v>40458</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>135</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="27">
+        <v>40465</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>105</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="27">
+        <v>40456</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>105</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>40462</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>105</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>40456</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>110</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>40462</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>40464</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>135</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>54</v>
+      <c r="D16" s="11" t="s">
+        <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="10">
-        <v>40458</v>
-      </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>105</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13">
-        <v>40465</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>105</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="13">
-        <v>40458</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13">
-        <v>40458</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13">
-        <v>40458</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>135</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13">
-        <v>40465</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>105</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13">
-        <v>40456</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>105</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="E16" s="27">
         <v>40462</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>105</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13">
-        <v>40456</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>110</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13">
-        <v>40462</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13">
-        <v>40464</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>135</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13">
-        <v>40462</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>135</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>40462</v>
+      </c>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>40464</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>110</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>40466</v>
+      </c>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>40466</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>110</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>135</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="27">
+        <v>40452</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>135</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="27">
+        <v>40456</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>105</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="27">
+        <v>40452</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>110</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
+      <c r="D26" s="11" t="s">
+        <v>25</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
+      <c r="E26" s="27" t="s">
+        <v>63</v>
       </c>
-      <c r="E17" s="13">
-        <v>40462</v>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>24</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="27">
+        <v>40457</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>27</v>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>24</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>13</v>
+      <c r="B28" s="11" t="s">
+        <v>4</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
+      <c r="C28" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>5</v>
+      <c r="D28" s="11" t="s">
+        <v>25</v>
       </c>
-      <c r="E18" s="13">
-        <v>40464</v>
+      <c r="E28" s="27">
+        <v>40455</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>110</v>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>135</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>55</v>
+      <c r="B29" s="12" t="s">
+        <v>56</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13">
-        <v>40466</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="13">
-        <v>40466</v>
-      </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>110</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>135</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13">
-        <v>40452</v>
-      </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>135</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="13">
-        <v>40456</v>
-      </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>105</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="13">
-        <v>40452</v>
-      </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>110</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="13">
-        <v>40457</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="13">
-        <v>40455</v>
-      </c>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <v>135</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="E29" s="28">
         <v>40457</v>
       </c>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="11"/>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="11"/>
-      <c r="AD68" s="11"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="11"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="11"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="11"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="11"/>
-      <c r="AC79" s="11"/>
-      <c r="AD79" s="11"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="11"/>
-      <c r="AD80" s="11"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="11"/>
-      <c r="AB81" s="11"/>
-      <c r="AC81" s="11"/>
-      <c r="AD81" s="11"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
-      <c r="X82" s="11"/>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="11"/>
-      <c r="AC82" s="11"/>
-      <c r="AD82" s="11"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="11"/>
-      <c r="AC83" s="11"/>
-      <c r="AD83" s="11"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="11"/>
-      <c r="AC84" s="11"/>
-      <c r="AD84" s="11"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="11"/>
-      <c r="Z85" s="11"/>
-      <c r="AA85" s="11"/>
-      <c r="AB85" s="11"/>
-      <c r="AC85" s="11"/>
-      <c r="AD85" s="11"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
-      <c r="X86" s="11"/>
-      <c r="Y86" s="11"/>
-      <c r="Z86" s="11"/>
-      <c r="AA86" s="11"/>
-      <c r="AB86" s="11"/>
-      <c r="AC86" s="11"/>
-      <c r="AD86" s="11"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="11"/>
-      <c r="AC87" s="11"/>
-      <c r="AD87" s="11"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-      <c r="AA88" s="11"/>
-      <c r="AB88" s="11"/>
-      <c r="AC88" s="11"/>
-      <c r="AD88" s="11"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
-      <c r="AA89" s="11"/>
-      <c r="AB89" s="11"/>
-      <c r="AC89" s="11"/>
-      <c r="AD89" s="11"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+      <c r="AB89" s="10"/>
+      <c r="AC89" s="10"/>
+      <c r="AD89" s="10"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11"/>
-      <c r="AA90" s="11"/>
-      <c r="AB90" s="11"/>
-      <c r="AC90" s="11"/>
-      <c r="AD90" s="11"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11"/>
-      <c r="AA91" s="11"/>
-      <c r="AB91" s="11"/>
-      <c r="AC91" s="11"/>
-      <c r="AD91" s="11"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-      <c r="AA92" s="11"/>
-      <c r="AB92" s="11"/>
-      <c r="AC92" s="11"/>
-      <c r="AD92" s="11"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-      <c r="AA93" s="11"/>
-      <c r="AB93" s="11"/>
-      <c r="AC93" s="11"/>
-      <c r="AD93" s="11"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11"/>
-      <c r="AA94" s="11"/>
-      <c r="AB94" s="11"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="11"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="11"/>
-      <c r="X95" s="11"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-      <c r="AA95" s="11"/>
-      <c r="AB95" s="11"/>
-      <c r="AC95" s="11"/>
-      <c r="AD95" s="11"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A96" s="15"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-      <c r="AA96" s="11"/>
-      <c r="AB96" s="11"/>
-      <c r="AC96" s="11"/>
-      <c r="AD96" s="11"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="10"/>
+      <c r="AC96" s="10"/>
+      <c r="AD96" s="10"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A97" s="15"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="11"/>
-      <c r="AA97" s="11"/>
-      <c r="AB97" s="11"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="11"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A98" s="15"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="11"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="11"/>
-      <c r="Z98" s="11"/>
-      <c r="AA98" s="11"/>
-      <c r="AB98" s="11"/>
-      <c r="AC98" s="11"/>
-      <c r="AD98" s="11"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A99" s="15"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
-      <c r="Z99" s="11"/>
-      <c r="AA99" s="11"/>
-      <c r="AB99" s="11"/>
-      <c r="AC99" s="11"/>
-      <c r="AD99" s="11"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A100" s="15"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
-      <c r="Z100" s="11"/>
-      <c r="AA100" s="11"/>
-      <c r="AB100" s="11"/>
-      <c r="AC100" s="11"/>
-      <c r="AD100" s="11"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="10"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A101" s="15"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
-      <c r="Y101" s="11"/>
-      <c r="Z101" s="11"/>
-      <c r="AA101" s="11"/>
-      <c r="AB101" s="11"/>
-      <c r="AC101" s="11"/>
-      <c r="AD101" s="11"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="10"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="10"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A102" s="15"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-      <c r="Y102" s="11"/>
-      <c r="Z102" s="11"/>
-      <c r="AA102" s="11"/>
-      <c r="AB102" s="11"/>
-      <c r="AC102" s="11"/>
-      <c r="AD102" s="11"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="10"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="10"/>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A103" s="15"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-      <c r="Y103" s="11"/>
-      <c r="Z103" s="11"/>
-      <c r="AA103" s="11"/>
-      <c r="AB103" s="11"/>
-      <c r="AC103" s="11"/>
-      <c r="AD103" s="11"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="10"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="10"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A104" s="15"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
-      <c r="X104" s="11"/>
-      <c r="Y104" s="11"/>
-      <c r="Z104" s="11"/>
-      <c r="AA104" s="11"/>
-      <c r="AB104" s="11"/>
-      <c r="AC104" s="11"/>
-      <c r="AD104" s="11"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="10"/>
+      <c r="AA104" s="10"/>
+      <c r="AB104" s="10"/>
+      <c r="AC104" s="10"/>
+      <c r="AD104" s="10"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A105" s="15"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
-      <c r="Y105" s="11"/>
-      <c r="Z105" s="11"/>
-      <c r="AA105" s="11"/>
-      <c r="AB105" s="11"/>
-      <c r="AC105" s="11"/>
-      <c r="AD105" s="11"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="10"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="10"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="11"/>
-      <c r="X106" s="11"/>
-      <c r="Y106" s="11"/>
-      <c r="Z106" s="11"/>
-      <c r="AA106" s="11"/>
-      <c r="AB106" s="11"/>
-      <c r="AC106" s="11"/>
-      <c r="AD106" s="11"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="10"/>
+      <c r="AB106" s="10"/>
+      <c r="AC106" s="10"/>
+      <c r="AD106" s="10"/>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A107" s="15"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="11"/>
-      <c r="X107" s="11"/>
-      <c r="Y107" s="11"/>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="11"/>
-      <c r="AB107" s="11"/>
-      <c r="AC107" s="11"/>
-      <c r="AD107" s="11"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="10"/>
+      <c r="Z107" s="10"/>
+      <c r="AA107" s="10"/>
+      <c r="AB107" s="10"/>
+      <c r="AC107" s="10"/>
+      <c r="AD107" s="10"/>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A108" s="15"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="11"/>
-      <c r="X108" s="11"/>
-      <c r="Y108" s="11"/>
-      <c r="Z108" s="11"/>
-      <c r="AA108" s="11"/>
-      <c r="AB108" s="11"/>
-      <c r="AC108" s="11"/>
-      <c r="AD108" s="11"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="10"/>
+      <c r="AB108" s="10"/>
+      <c r="AC108" s="10"/>
+      <c r="AD108" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
